--- a/nss/state_code.xlsx
+++ b/nss/state_code.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/xweng_worldbank_org/Documents/7_Housing/survey_all/Housing_git/nss/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb500886\OneDrive - WBG\7_Housing\survey_all\Housing_git\nss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{07CFC70A-6284-4E88-A789-028CBDC03E7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{2FDDF026-B009-4C11-9AC7-3D19C1AB0FD6}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{07CFC70A-6284-4E88-A789-028CBDC03E7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{5EDABB06-EFE2-48AD-9781-F23C787A92C2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2450" yWindow="1380" windowWidth="12950" windowHeight="9000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="49" sheetId="5" r:id="rId1"/>
     <sheet name="58" sheetId="6" r:id="rId2"/>
     <sheet name="65" sheetId="7" r:id="rId3"/>
-    <sheet name="all" sheetId="1" r:id="rId4"/>
-    <sheet name="iso" sheetId="2" r:id="rId5"/>
-    <sheet name="region" sheetId="4" r:id="rId6"/>
+    <sheet name="census" sheetId="8" r:id="rId4"/>
+    <sheet name="all" sheetId="1" r:id="rId5"/>
+    <sheet name="iso" sheetId="2" r:id="rId6"/>
+    <sheet name="region" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="272">
   <si>
     <t>01</t>
   </si>
@@ -1045,10 +1046,130 @@
     <t>changed spelling</t>
   </si>
   <si>
-    <t>state nss 65_69_76_58</t>
-  </si>
-  <si>
     <t>Only for NSS76 as it's a new state. Replace it to Andhra Pradesh 28.</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JAMMU &amp; KASHMIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HIMACHAL PRADESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PUNJAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHANDIGARH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UTTARAKHAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HARYANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NCT OF DELHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RAJASTHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UTTAR PRADESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BIHAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SIKKIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ARUNACHAL PRADESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NAGALAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MANIPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MIZORAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRIPURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MEGHALAYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASSAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WEST BENGAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JHARKHAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ODISHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHATTISGARH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MADHYA PRADESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GUJARAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DAMAN &amp; DIU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DADRA &amp; NAGAR HAVELI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAHARASHTRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANDHRA PRADESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KARNATAKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LAKSHADWEEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KERALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TAMIL NADU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PUDUCHERRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANDAMAN &amp; NICOBAR ISLANDS</t>
+  </si>
+  <si>
+    <t>hh_state (census)</t>
+  </si>
+  <si>
+    <t>hh_state(nss76)</t>
+  </si>
+  <si>
+    <t>state nss 65_69_76_58_census</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1480,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1410,9 +1531,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1492,12 +1610,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -1534,6 +1646,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{E11875A4-8440-4B17-AF4B-F1BB5D2A06B6}"/>
@@ -1543,6 +1665,9 @@
     <cellStyle name="Normal 4" xfId="4" xr:uid="{E5BEE016-3EC5-4C33-B589-0024459CDF5E}"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1561,9 +1686,6 @@
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1581,19 +1703,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{729F41FA-0370-4797-BF99-B0CF587D6EE9}" name="Table2" displayName="Table2" ref="A1:H37" totalsRowShown="0" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="A1:H37" xr:uid="{4F30844A-E9E2-4F64-B299-176139CE1428}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H37">
-    <sortCondition ref="B1:B37"/>
+    <sortCondition ref="A1:A37"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{69A3987C-7D20-4C40-B2CB-D53279653015}" name="state_nss_code" dataDxfId="3" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{AF25B603-6E6F-4249-B784-DBB125770BDE}" name="state nss 65_69_76_58" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{69A3987C-7D20-4C40-B2CB-D53279653015}" name="state_nss_code" dataDxfId="4" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{AF25B603-6E6F-4249-B784-DBB125770BDE}" name="state nss 65_69_76_58_census" dataCellStyle="Normal 2"/>
     <tableColumn id="3" xr3:uid="{BEB4126F-B583-46FE-921C-181243594147}" name="state in gsdp" dataCellStyle="Normal 2"/>
     <tableColumn id="4" xr3:uid="{3A2F8093-9B4B-458D-8488-D9903FCBEB17}" name="consolidate" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" xr3:uid="{A829954B-16E8-41ED-B0D4-C8682476E94C}" name="state code gndp" dataDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" xr3:uid="{A829954B-16E8-41ED-B0D4-C8682476E94C}" name="state code gndp" dataDxfId="3" dataCellStyle="Normal 2"/>
     <tableColumn id="6" xr3:uid="{910FDED4-7644-4D53-B0FD-4D1857148A6C}" name="comments" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{DF0B4154-928A-4E64-9802-366B2D7571C8}" name="iso code" dataDxfId="1" dataCellStyle="Normal 2">
+    <tableColumn id="7" xr3:uid="{DF0B4154-928A-4E64-9802-366B2D7571C8}" name="iso code" dataDxfId="2" dataCellStyle="Normal 2">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A1:C37,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DDE917CD-91BA-40FA-8EEF-116E7C2ED0B7}" name="region" dataDxfId="0" dataCellStyle="Normal 3">
+    <tableColumn id="8" xr3:uid="{DDE917CD-91BA-40FA-8EEF-116E7C2ED0B7}" name="region" dataDxfId="1" dataCellStyle="Normal 3">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[state in gsdp]],#REF!,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1609,7 +1731,7 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A9229455-152F-463E-86A3-9C9CA69550C0}" name="#" dataCellStyle="Normal 3"/>
-    <tableColumn id="2" xr3:uid="{54925A4A-05D5-44AA-9EAF-0579FE8C2782}" name="State" dataDxfId="4" dataCellStyle="Normal 3"/>
+    <tableColumn id="2" xr3:uid="{54925A4A-05D5-44AA-9EAF-0579FE8C2782}" name="State" dataDxfId="0" dataCellStyle="Normal 3"/>
     <tableColumn id="3" xr3:uid="{016D92F5-5912-4183-B1B0-3FB79B8DA3E6}" name="Region" dataCellStyle="Normal 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1971,34 +2093,34 @@
         <v>183</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="65"/>
     </row>
     <row r="4" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <v>2</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="28">
         <v>28</v>
       </c>
       <c r="E5" s="17" t="str">
@@ -2011,16 +2133,16 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+      <c r="A6" s="29">
         <v>2</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="31">
         <v>3</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="32">
         <v>12</v>
       </c>
       <c r="E6" s="17" t="str">
@@ -2033,16 +2155,16 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="29">
         <v>3</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="31">
         <v>4</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="32">
         <v>18</v>
       </c>
       <c r="E7" s="17" t="str">
@@ -2055,16 +2177,16 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+      <c r="A8" s="29">
         <v>4</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="31">
         <v>5</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="32">
         <v>10</v>
       </c>
       <c r="E8" s="17" t="str">
@@ -2077,16 +2199,16 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+      <c r="A9" s="29">
         <v>5</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="31">
         <v>6</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="32">
         <v>30</v>
       </c>
       <c r="E9" s="17" t="str">
@@ -2099,16 +2221,16 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+      <c r="A10" s="29">
         <v>6</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="31">
         <v>7</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="32">
         <v>24</v>
       </c>
       <c r="E10" s="17" t="str">
@@ -2121,16 +2243,16 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
+      <c r="A11" s="29">
         <v>7</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="31">
         <v>8</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="33">
         <v>6</v>
       </c>
       <c r="E11" s="17" t="str">
@@ -2143,16 +2265,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="29">
         <v>8</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="31">
         <v>9</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="33">
         <v>2</v>
       </c>
       <c r="E12" s="17" t="str">
@@ -2165,16 +2287,16 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="29">
         <v>9</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="34">
         <v>10</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="33">
         <v>1</v>
       </c>
       <c r="E13" s="17" t="str">
@@ -2187,16 +2309,16 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="A14" s="29">
         <v>10</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="34">
         <v>11</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="32">
         <v>29</v>
       </c>
       <c r="E14" s="17" t="str">
@@ -2209,16 +2331,16 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+      <c r="A15" s="29">
         <v>11</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="34">
         <v>12</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="32">
         <v>32</v>
       </c>
       <c r="E15" s="17" t="str">
@@ -2231,16 +2353,16 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
+      <c r="A16" s="29">
         <v>12</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="34">
         <v>13</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="32">
         <v>23</v>
       </c>
       <c r="E16" s="17" t="str">
@@ -2253,16 +2375,16 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30">
+      <c r="A17" s="29">
         <v>13</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="34">
         <v>14</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="32">
         <v>27</v>
       </c>
       <c r="E17" s="17" t="str">
@@ -2275,16 +2397,16 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+      <c r="A18" s="29">
         <v>14</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="34">
         <v>15</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="32">
         <v>14</v>
       </c>
       <c r="E18" s="17" t="str">
@@ -2297,16 +2419,16 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+      <c r="A19" s="29">
         <v>15</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="34">
         <v>16</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="32">
         <v>17</v>
       </c>
       <c r="E19" s="17" t="str">
@@ -2319,16 +2441,16 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
+      <c r="A20" s="29">
         <v>16</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="34">
         <v>17</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="32">
         <v>15</v>
       </c>
       <c r="E20" s="17" t="str">
@@ -2341,16 +2463,16 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
+      <c r="A21" s="29">
         <v>17</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="34">
         <v>18</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="32">
         <v>13</v>
       </c>
       <c r="E21" s="17" t="str">
@@ -2363,16 +2485,16 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
+      <c r="A22" s="29">
         <v>18</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="34">
         <v>19</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="32">
         <v>21</v>
       </c>
       <c r="E22" s="17" t="str">
@@ -2385,16 +2507,16 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
+      <c r="A23" s="29">
         <v>19</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="34">
         <v>20</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="33">
         <v>3</v>
       </c>
       <c r="E23" s="17" t="str">
@@ -2407,16 +2529,16 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
+      <c r="A24" s="29">
         <v>20</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="34">
         <v>21</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="33">
         <v>8</v>
       </c>
       <c r="E24" s="17" t="str">
@@ -2429,16 +2551,16 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30">
+      <c r="A25" s="29">
         <v>21</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="34">
         <v>22</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="32">
         <v>11</v>
       </c>
       <c r="E25" s="17" t="str">
@@ -2451,16 +2573,16 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
+      <c r="A26" s="29">
         <v>22</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="34">
         <v>23</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="32">
         <v>33</v>
       </c>
       <c r="E26" s="17" t="str">
@@ -2473,16 +2595,16 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30">
+      <c r="A27" s="29">
         <v>23</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="34">
         <v>24</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="32">
         <v>16</v>
       </c>
       <c r="E27" s="17" t="str">
@@ -2495,16 +2617,16 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
+      <c r="A28" s="29">
         <v>24</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="34">
         <v>25</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="33">
         <v>9</v>
       </c>
       <c r="E28" s="17" t="str">
@@ -2517,16 +2639,16 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36">
+      <c r="A29" s="35">
         <v>25</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="37">
         <v>26</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="38">
         <v>19</v>
       </c>
       <c r="E29" s="17" t="str">
@@ -2539,16 +2661,16 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26">
+      <c r="A30" s="25">
         <v>26</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="39">
         <v>27</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="28">
         <v>35</v>
       </c>
       <c r="E30" s="17" t="str">
@@ -2561,16 +2683,16 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30">
+      <c r="A31" s="29">
         <v>27</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="34">
         <v>28</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="33">
         <v>4</v>
       </c>
       <c r="E31" s="17" t="str">
@@ -2583,16 +2705,16 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30">
+      <c r="A32" s="29">
         <v>28</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="34">
         <v>29</v>
       </c>
-      <c r="D32" s="33">
+      <c r="D32" s="32">
         <v>26</v>
       </c>
       <c r="E32" s="17" t="str">
@@ -2605,16 +2727,16 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30">
+      <c r="A33" s="29">
         <v>29</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="34">
         <v>30</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="32">
         <v>25</v>
       </c>
       <c r="E33" s="17" t="str">
@@ -2627,16 +2749,16 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30">
+      <c r="A34" s="29">
         <v>30</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="34">
         <v>31</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="33">
         <v>7</v>
       </c>
       <c r="E34" s="17" t="str">
@@ -2649,16 +2771,16 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30">
+      <c r="A35" s="29">
         <v>31</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="34">
         <v>32</v>
       </c>
-      <c r="D35" s="33">
+      <c r="D35" s="32">
         <v>31</v>
       </c>
       <c r="E35" s="17" t="str">
@@ -2671,16 +2793,16 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36">
+      <c r="A36" s="35">
         <v>32</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="C36" s="38">
+      <c r="C36" s="37">
         <v>33</v>
       </c>
-      <c r="D36" s="39">
+      <c r="D36" s="38">
         <v>34</v>
       </c>
       <c r="E36" s="17" t="str">
@@ -2693,16 +2815,16 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26">
+      <c r="A37" s="25">
         <v>33</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D37" s="28">
         <v>22</v>
       </c>
       <c r="K37" s="17" t="str">
@@ -2711,16 +2833,16 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="30">
+      <c r="A38" s="29">
         <v>34</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="D38" s="33">
+      <c r="D38" s="32">
         <v>20</v>
       </c>
       <c r="K38" s="17" t="str">
@@ -2729,16 +2851,16 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36">
+      <c r="A39" s="35">
         <v>35</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="D39" s="44">
+      <c r="D39" s="43">
         <v>5</v>
       </c>
       <c r="K39" s="17" t="str">
@@ -2760,7 +2882,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:C31"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2769,260 +2891,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="66" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="48"/>
     </row>
     <row r="3" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="46">
         <v>28</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="49">
         <f>VLOOKUP(A3,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="46">
         <v>12</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="49">
         <f>VLOOKUP(A4,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="46">
         <v>18</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="49">
         <f>VLOOKUP(A5,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="46">
         <v>10</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="49">
         <f>VLOOKUP(A6,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="46">
         <v>22</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="49">
         <f>VLOOKUP(A7,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>22</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="51" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="46">
         <v>30</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="49">
         <f>VLOOKUP(A8,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="46">
         <v>24</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="49">
         <f>VLOOKUP(A9,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="46">
         <v>6</v>
       </c>
-      <c r="C10" s="52" t="str">
+      <c r="C10" s="49" t="str">
         <f>VLOOKUP(A10,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>06</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="46">
         <v>2</v>
       </c>
-      <c r="C11" s="52" t="str">
+      <c r="C11" s="49" t="str">
         <f>VLOOKUP(A11,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>02</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="46">
         <v>1</v>
       </c>
-      <c r="C12" s="52" t="str">
+      <c r="C12" s="49" t="str">
         <f>VLOOKUP(A12,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>01</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="46">
         <v>20</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="49">
         <f>VLOOKUP(A13,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="46">
         <v>29</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="49">
         <f>VLOOKUP(A14,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="46">
         <v>32</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="49">
         <f>VLOOKUP(A15,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="47">
+      <c r="B16" s="46">
         <v>23</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="49">
         <f>VLOOKUP(A16,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="47">
+      <c r="B17" s="46">
         <v>27</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="49">
         <f>VLOOKUP(A17,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="47">
+      <c r="B18" s="46">
         <v>14</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="49">
         <f>VLOOKUP(A18,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="47">
+      <c r="B19" s="46">
         <v>17</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="49">
         <f>VLOOKUP(A19,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="46">
         <v>15</v>
       </c>
-      <c r="C20" s="52">
+      <c r="C20" s="49">
         <f>VLOOKUP(A20,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="47">
+      <c r="B21" s="46">
         <v>13</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="49">
         <f>VLOOKUP(A21,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="46">
         <v>21</v>
       </c>
-      <c r="C22" s="52">
+      <c r="C22" s="49">
         <f>VLOOKUP(A22,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>21</v>
       </c>
@@ -3031,109 +3153,109 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="47">
+      <c r="B23" s="46">
         <v>3</v>
       </c>
-      <c r="C23" s="52" t="str">
+      <c r="C23" s="49" t="str">
         <f>VLOOKUP(A23,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>03</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="47">
+      <c r="B24" s="46">
         <v>8</v>
       </c>
-      <c r="C24" s="52" t="str">
+      <c r="C24" s="49" t="str">
         <f>VLOOKUP(A24,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>08</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="47">
+      <c r="B25" s="46">
         <v>11</v>
       </c>
-      <c r="C25" s="52">
+      <c r="C25" s="49">
         <f>VLOOKUP(A25,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="47">
+      <c r="B26" s="46">
         <v>33</v>
       </c>
-      <c r="C26" s="52">
+      <c r="C26" s="49">
         <f>VLOOKUP(A26,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="47">
+      <c r="B27" s="46">
         <v>16</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="49">
         <f>VLOOKUP(A27,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="47">
+      <c r="B28" s="46">
         <v>5</v>
       </c>
-      <c r="C28" s="52" t="str">
+      <c r="C28" s="49" t="str">
         <f>VLOOKUP(A28,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>05</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="47">
+      <c r="B29" s="46">
         <v>9</v>
       </c>
-      <c r="C29" s="52" t="str">
+      <c r="C29" s="49" t="str">
         <f>VLOOKUP(A29,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>09</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="47">
+      <c r="B30" s="46">
         <v>19</v>
       </c>
-      <c r="C30" s="52">
+      <c r="C30" s="49">
         <f>VLOOKUP(A30,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="47">
+      <c r="B31" s="46">
         <v>35</v>
       </c>
-      <c r="C31" s="52">
+      <c r="C31" s="49">
         <f>VLOOKUP(A31,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>35</v>
       </c>
@@ -3142,26 +3264,26 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="47">
+      <c r="B32" s="46">
         <v>4</v>
       </c>
-      <c r="C32" s="52" t="str">
+      <c r="C32" s="49" t="str">
         <f>VLOOKUP(A32,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>04</v>
       </c>
-      <c r="D32" s="55"/>
+      <c r="D32" s="52"/>
     </row>
     <row r="33" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="47">
+      <c r="B33" s="46">
         <v>26</v>
       </c>
-      <c r="C33" s="52">
+      <c r="C33" s="49">
         <f>VLOOKUP(A33,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>26</v>
       </c>
@@ -3170,49 +3292,49 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="47">
+      <c r="B34" s="46">
         <v>25</v>
       </c>
-      <c r="C34" s="52">
+      <c r="C34" s="49">
         <f>VLOOKUP(A34,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="47">
+      <c r="B35" s="46">
         <v>7</v>
       </c>
-      <c r="C35" s="52" t="str">
+      <c r="C35" s="49" t="str">
         <f>VLOOKUP(A35,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>07</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="47">
+      <c r="B36" s="46">
         <v>31</v>
       </c>
-      <c r="C36" s="52">
+      <c r="C36" s="49">
         <f>VLOOKUP(A36,'65'!$A$2:$B$37,2,FALSE)</f>
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="47">
+      <c r="B37" s="46">
         <v>34</v>
       </c>
-      <c r="C37" s="47">
+      <c r="C37" s="46">
         <v>34</v>
       </c>
       <c r="D37" t="s">
@@ -3232,8 +3354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864B50AF-58A5-48E0-A9B2-EFC9A31C5660}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3242,298 +3364,298 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="54" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="55">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="56">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="58">
+      <c r="B4" s="55">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="59">
+      <c r="B5" s="56">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="55">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="58">
+      <c r="B8" s="55">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="56">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="58">
+      <c r="B10" s="55">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="56" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="58">
+      <c r="B12" s="55">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="59">
+      <c r="B13" s="56">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="55" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="56" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="55" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="59">
+      <c r="B17" s="56">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="58">
+      <c r="B18" s="55">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="59">
+      <c r="B19" s="56">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="58">
+      <c r="B20" s="55">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="59">
+      <c r="B21" s="56">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="58">
+      <c r="B22" s="55">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="59">
+      <c r="B23" s="56">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="58">
+      <c r="B24" s="55">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="59">
+      <c r="B25" s="56">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="58">
+      <c r="B26" s="55">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="59">
+      <c r="B27" s="56">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="58">
+      <c r="B28" s="55">
         <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="56" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="55" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="59">
+      <c r="B31" s="56">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="58">
+      <c r="B32" s="55">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="59">
+      <c r="B33" s="56">
         <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="58">
+      <c r="B34" s="55">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="55" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="60">
+      <c r="B37" s="57">
         <v>19</v>
       </c>
     </row>
@@ -3544,11 +3666,730 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05918A62-66E6-4081-B2E9-D6C1FCE0F195}">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.90625" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" t="str">
+        <f>TRIM(C2)</f>
+        <v>INDIA</v>
+      </c>
+      <c r="E2" t="e">
+        <f>VLOOKUP(D2,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D36" si="0">TRIM(C3)</f>
+        <v>JAMMU &amp; KASHMIR</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>HIMACHAL PRADESH</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>PUNJAB</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>CHANDIGARH</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>HARYANA</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>RAJASTHAN</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>UTTAR PRADESH</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>BIHAR</v>
+      </c>
+      <c r="E12">
+        <f>VLOOKUP(D12,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>SIKKIM</v>
+      </c>
+      <c r="E13">
+        <f>VLOOKUP(D13,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>ARUNACHAL PRADESH</v>
+      </c>
+      <c r="E14">
+        <f>VLOOKUP(D14,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>NAGALAND</v>
+      </c>
+      <c r="E15">
+        <f>VLOOKUP(D15,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>MANIPUR</v>
+      </c>
+      <c r="E16">
+        <f>VLOOKUP(D16,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>MIZORAM</v>
+      </c>
+      <c r="E17">
+        <f>VLOOKUP(D17,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>TRIPURA</v>
+      </c>
+      <c r="E18">
+        <f>VLOOKUP(D18,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>MEGHALAYA</v>
+      </c>
+      <c r="E19">
+        <f>VLOOKUP(D19,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>ASSAM</v>
+      </c>
+      <c r="E20">
+        <f>VLOOKUP(D20,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>WEST BENGAL</v>
+      </c>
+      <c r="E21">
+        <f>VLOOKUP(D21,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>JHARKHAND</v>
+      </c>
+      <c r="E22">
+        <f>VLOOKUP(D22,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>ODISHA</v>
+      </c>
+      <c r="E23">
+        <f>VLOOKUP(D23,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <f>VLOOKUP(D24,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>MADHYA PRADESH</v>
+      </c>
+      <c r="E25">
+        <f>VLOOKUP(D25,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>GUJARAT</v>
+      </c>
+      <c r="E26">
+        <f>VLOOKUP(D26,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>DAMAN &amp; DIU</v>
+      </c>
+      <c r="E27">
+        <f>VLOOKUP(D27,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" t="s">
+        <v>259</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28">
+        <f>VLOOKUP(D28,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="F28" s="51" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>MAHARASHTRA</v>
+      </c>
+      <c r="E29">
+        <f>VLOOKUP(D29,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" t="s">
+        <v>261</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>ANDHRA PRADESH</v>
+      </c>
+      <c r="E30">
+        <f>VLOOKUP(D30,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" t="s">
+        <v>262</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>KARNATAKA</v>
+      </c>
+      <c r="E31">
+        <f>VLOOKUP(D31,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32" t="s">
+        <v>263</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>GOA</v>
+      </c>
+      <c r="E32">
+        <f>VLOOKUP(D32,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" t="s">
+        <v>264</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>LAKSHADWEEP</v>
+      </c>
+      <c r="E33">
+        <f>VLOOKUP(D33,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C34" t="s">
+        <v>265</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>KERALA</v>
+      </c>
+      <c r="E34">
+        <f>VLOOKUP(D34,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>233</v>
+      </c>
+      <c r="C35" t="s">
+        <v>266</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>TAMIL NADU</v>
+      </c>
+      <c r="E35">
+        <f>VLOOKUP(D35,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C36" t="s">
+        <v>267</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>PUDUCHERRY</v>
+      </c>
+      <c r="E36">
+        <f>VLOOKUP(D36,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>233</v>
+      </c>
+      <c r="C37" t="s">
+        <v>268</v>
+      </c>
+      <c r="D37" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37">
+        <f>VLOOKUP(D37,'65'!$A$2:$B$37,2,FALSE)</f>
+        <v>35</v>
+      </c>
+      <c r="F37" s="51" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3568,7 +4409,7 @@
         <v>166</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>78</v>
@@ -3591,52 +4432,55 @@
     </row>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="4">
         <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>174</v>
+      <c r="G2" s="6" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A5:C41,2,FALSE)</f>
+        <v>BR</v>
+      </c>
+      <c r="H2" s="10" t="str">
+        <f>VLOOKUP(C2,Table13[[#All],[State]:[Region]],2,FALSE)</f>
+        <v>Eastern Zonal Council</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="4">
         <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="6" t="s">
-        <v>90</v>
+      <c r="G3" s="6" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A30:C66,2,FALSE)</f>
+        <v>SK</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -3668,25 +4512,25 @@
     </row>
     <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="4">
         <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="6" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A4:C40,2,FALSE)</f>
-        <v>AS</v>
+        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A25:C61,2,FALSE)</f>
+        <v>NL</v>
       </c>
       <c r="H5" s="10" t="str">
         <f>VLOOKUP(C5,Table13[[#All],[State]:[Region]],2,FALSE)</f>
@@ -3695,432 +4539,440 @@
     </row>
     <row r="6" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="4">
         <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="6" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A5:C41,2,FALSE)</f>
-        <v>BR</v>
+        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A22:C58,2,FALSE)</f>
+        <v>MN</v>
       </c>
       <c r="H6" s="10" t="str">
         <f>VLOOKUP(C6,Table13[[#All],[State]:[Region]],2,FALSE)</f>
-        <v>Eastern Zonal Council</v>
+        <v>North Eastern Council</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>6</v>
+      <c r="A7" s="13">
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="str">
+      <c r="E7" s="4">
         <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>04</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="6" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A6:C42,2,FALSE)</f>
-        <v>CH</v>
+        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A24:C60,2,FALSE)</f>
+        <v>MZ</v>
       </c>
       <c r="H7" s="10" t="str">
         <f>VLOOKUP(C7,Table13[[#All],[State]:[Region]],2,FALSE)</f>
-        <v>Northern Zonal Council</v>
+        <v>North Eastern Council</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="4">
         <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="6" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A32:C68,2,FALSE)</f>
+        <v>TR</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="13">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <f>Table2[[#This Row],[state_nss_code]]</f>
+        <v>17</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="6" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A23:C59,2,FALSE)</f>
+        <v>ML</v>
+      </c>
+      <c r="H9" s="10" t="str">
+        <f>VLOOKUP(C9,Table13[[#All],[State]:[Region]],2,FALSE)</f>
+        <v>North Eastern Council</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="13">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <f>Table2[[#This Row],[state_nss_code]]</f>
+        <v>18</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="6" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A4:C40,2,FALSE)</f>
+        <v>AS</v>
+      </c>
+      <c r="H10" s="10" t="str">
+        <f>VLOOKUP(C10,Table13[[#All],[State]:[Region]],2,FALSE)</f>
+        <v>North Eastern Council</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="13">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <f>Table2[[#This Row],[state_nss_code]]</f>
+        <v>19</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="6" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A35:C71,2,FALSE)</f>
+        <v>WB</v>
+      </c>
+      <c r="H11" s="10" t="str">
+        <f>VLOOKUP(C11,Table13[[#All],[State]:[Region]],2,FALSE)</f>
+        <v>Eastern Zonal Council</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="13">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <f>Table2[[#This Row],[state_nss_code]]</f>
+        <v>20</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="6" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A16:C52,2,FALSE)</f>
+        <v>JH</v>
+      </c>
+      <c r="H12" s="10" t="str">
+        <f>VLOOKUP(C12,Table13[[#All],[State]:[Region]],2,FALSE)</f>
+        <v>Eastern Zonal Council</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="13">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <f>Table2[[#This Row],[state_nss_code]]</f>
+        <v>21</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="6" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A26:C62,2,FALSE)</f>
+        <v>OR</v>
+      </c>
+      <c r="H13" s="10" t="str">
+        <f>VLOOKUP(C13,Table13[[#All],[State]:[Region]],2,FALSE)</f>
+        <v>Eastern Zonal Council</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="13">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <f>Table2[[#This Row],[state_nss_code]]</f>
+        <v>22</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="6" t="str">
         <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A7:C43,2,FALSE)</f>
         <v>CT</v>
       </c>
-      <c r="H8" s="10" t="str">
-        <f>VLOOKUP(C8,Table13[[#All],[State]:[Region]],2,FALSE)</f>
+      <c r="H14" s="10" t="str">
+        <f>VLOOKUP(C14,Table13[[#All],[State]:[Region]],2,FALSE)</f>
         <v>Central Zonal Council</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="13">
+    <row r="15" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="13">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <f>Table2[[#This Row],[state_nss_code]]</f>
+        <v>23</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="6" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A20:C56,2,FALSE)</f>
+        <v>MP</v>
+      </c>
+      <c r="H15" s="10" t="str">
+        <f>VLOOKUP(C15,Table13[[#All],[State]:[Region]],2,FALSE)</f>
+        <v>Central Zonal Council</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="13">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <f>Table2[[#This Row],[state_nss_code]]</f>
+        <v>24</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="6" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A12:C48,2,FALSE)</f>
+        <v>GJ</v>
+      </c>
+      <c r="H16" s="10" t="str">
+        <f>VLOOKUP(C16,Table13[[#All],[State]:[Region]],2,FALSE)</f>
+        <v>Western Zonal Council</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="13">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="13">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="1" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H18" s="10" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="13">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="1">
+    <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="13">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="4" t="str">
+      <c r="E19" s="4">
         <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>07</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="6" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A10:C46,2,FALSE)</f>
-        <v>DL</v>
-      </c>
-      <c r="H11" s="10" t="str">
-        <f>VLOOKUP(C11,Table13[[#All],[State]:[Region]],2,FALSE)</f>
-        <v>Northern Zonal Council</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="13">
+        <v>27</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="6" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A21:C57,2,FALSE)</f>
+        <v>MH</v>
+      </c>
+      <c r="H19" s="10" t="str">
+        <f>VLOOKUP(C19,Table13[[#All],[State]:[Region]],2,FALSE)</f>
+        <v>Western Zonal Council</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="13">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <f>Table2[[#This Row],[state_nss_code]]</f>
+        <v>28</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="13">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <f>Table2[[#This Row],[state_nss_code]]</f>
+        <v>29</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="6" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A17:C53,2,FALSE)</f>
+        <v>KA</v>
+      </c>
+      <c r="H21" s="10" t="str">
+        <f>VLOOKUP(C21,Table13[[#All],[State]:[Region]],2,FALSE)</f>
+        <v>Southern Zonal Council</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="13">
         <v>30</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E22" s="4">
         <f>Table2[[#This Row],[state_nss_code]]</f>
         <v>30</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="6" t="str">
+      <c r="F22" s="1"/>
+      <c r="G22" s="6" t="str">
         <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A11:C47,2,FALSE)</f>
         <v>GA</v>
-      </c>
-      <c r="H12" s="10" t="str">
-        <f>VLOOKUP(C12,Table13[[#All],[State]:[Region]],2,FALSE)</f>
-        <v>Western Zonal Council</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="13">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>24</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="6" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A12:C48,2,FALSE)</f>
-        <v>GJ</v>
-      </c>
-      <c r="H13" s="10" t="str">
-        <f>VLOOKUP(C13,Table13[[#All],[State]:[Region]],2,FALSE)</f>
-        <v>Western Zonal Council</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4" t="str">
-        <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>06</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="6" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A13:C49,2,FALSE)</f>
-        <v>HR</v>
-      </c>
-      <c r="H14" s="10" t="str">
-        <f>VLOOKUP(C14,Table13[[#All],[State]:[Region]],2,FALSE)</f>
-        <v>Northern Zonal Council</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4" t="str">
-        <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>02</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="6" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A14:C50,2,FALSE)</f>
-        <v>HP</v>
-      </c>
-      <c r="H15" s="10" t="str">
-        <f>VLOOKUP(C15,Table13[[#All],[State]:[Region]],2,FALSE)</f>
-        <v>Northern Zonal Council</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4" t="str">
-        <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>01</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="13">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>20</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="6" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A16:C52,2,FALSE)</f>
-        <v>JH</v>
-      </c>
-      <c r="H17" s="10" t="str">
-        <f>VLOOKUP(C17,Table13[[#All],[State]:[Region]],2,FALSE)</f>
-        <v>Eastern Zonal Council</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="13">
-        <v>29</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
-        <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>29</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="6" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A17:C53,2,FALSE)</f>
-        <v>KA</v>
-      </c>
-      <c r="H18" s="10" t="str">
-        <f>VLOOKUP(C18,Table13[[#All],[State]:[Region]],2,FALSE)</f>
-        <v>Southern Zonal Council</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="13">
-        <v>32</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>32</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="6" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A18:C54,2,FALSE)</f>
-        <v>KL</v>
-      </c>
-      <c r="H19" s="10" t="str">
-        <f>VLOOKUP(C19,Table13[[#All],[State]:[Region]],2,FALSE)</f>
-        <v>Southern Zonal Council</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="13">
-        <v>31</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="13">
-        <v>23</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4">
-        <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>23</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="6" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A20:C56,2,FALSE)</f>
-        <v>MP</v>
-      </c>
-      <c r="H21" s="10" t="str">
-        <f>VLOOKUP(C21,Table13[[#All],[State]:[Region]],2,FALSE)</f>
-        <v>Central Zonal Council</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="13">
-        <v>27</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4">
-        <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>27</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="6" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A21:C57,2,FALSE)</f>
-        <v>MH</v>
       </c>
       <c r="H22" s="10" t="str">
         <f>VLOOKUP(C22,Table13[[#All],[State]:[Region]],2,FALSE)</f>
@@ -4129,401 +4981,390 @@
     </row>
     <row r="23" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="13">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4">
-        <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>14</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="6" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A22:C58,2,FALSE)</f>
-        <v>MN</v>
-      </c>
-      <c r="H23" s="10" t="str">
-        <f>VLOOKUP(C23,Table13[[#All],[State]:[Region]],2,FALSE)</f>
-        <v>North Eastern Council</v>
+      <c r="G23" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="13">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="4">
         <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="6" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A23:C59,2,FALSE)</f>
-        <v>ML</v>
+        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A18:C54,2,FALSE)</f>
+        <v>KL</v>
       </c>
       <c r="H24" s="10" t="str">
         <f>VLOOKUP(C24,Table13[[#All],[State]:[Region]],2,FALSE)</f>
-        <v>North Eastern Council</v>
+        <v>Southern Zonal Council</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="4">
         <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="6" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A24:C60,2,FALSE)</f>
-        <v>MZ</v>
+        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A31:C67,2,FALSE)</f>
+        <v>TN</v>
       </c>
       <c r="H25" s="10" t="str">
         <f>VLOOKUP(C25,Table13[[#All],[State]:[Region]],2,FALSE)</f>
-        <v>North Eastern Council</v>
+        <v>Southern Zonal Council</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="13">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
       <c r="E26" s="4">
         <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="6" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A25:C61,2,FALSE)</f>
-        <v>NL</v>
+        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A27:C63,2,FALSE)</f>
+        <v>PY</v>
       </c>
       <c r="H26" s="10" t="str">
         <f>VLOOKUP(C26,Table13[[#All],[State]:[Region]],2,FALSE)</f>
-        <v>North Eastern Council</v>
+        <v>Southern Zonal Council</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="13">
-        <v>21</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" s="4">
         <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="6" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A26:C62,2,FALSE)</f>
-        <v>OR</v>
-      </c>
-      <c r="H27" s="10" t="str">
-        <f>VLOOKUP(C27,Table13[[#All],[State]:[Region]],2,FALSE)</f>
-        <v>Eastern Zonal Council</v>
+      <c r="G27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="13">
-        <v>34</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="A28" s="60">
+        <v>36</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="61">
         <v>1</v>
       </c>
-      <c r="E28" s="4">
-        <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>34</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="6" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A27:C63,2,FALSE)</f>
-        <v>PY</v>
-      </c>
-      <c r="H28" s="10" t="str">
+      <c r="E28" s="63">
+        <v>36</v>
+      </c>
+      <c r="F28" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" s="64" t="str">
         <f>VLOOKUP(C28,Table13[[#All],[State]:[Region]],2,FALSE)</f>
         <v>Southern Zonal Council</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="4" t="str">
         <f>Table2[[#This Row],[state_nss_code]]</f>
+        <v>01</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4" t="str">
+        <f>Table2[[#This Row],[state_nss_code]]</f>
+        <v>02</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="6" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A14:C50,2,FALSE)</f>
+        <v>HP</v>
+      </c>
+      <c r="H30" s="10" t="str">
+        <f>VLOOKUP(C30,Table13[[#All],[State]:[Region]],2,FALSE)</f>
+        <v>Northern Zonal Council</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4" t="str">
+        <f>Table2[[#This Row],[state_nss_code]]</f>
         <v>03</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="6" t="str">
+      <c r="F31" s="1"/>
+      <c r="G31" s="6" t="str">
         <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A28:C64,2,FALSE)</f>
         <v>PB</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H31" s="10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
+    <row r="32" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4" t="str">
+        <f>Table2[[#This Row],[state_nss_code]]</f>
+        <v>04</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="6" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A6:C42,2,FALSE)</f>
+        <v>CH</v>
+      </c>
+      <c r="H32" s="10" t="str">
+        <f>VLOOKUP(C32,Table13[[#All],[State]:[Region]],2,FALSE)</f>
+        <v>Northern Zonal Council</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4" t="str">
+        <f>Table2[[#This Row],[state_nss_code]]</f>
+        <v>05</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="6" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A34:C70,2,FALSE)</f>
+        <v>UT</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4" t="str">
+        <f>Table2[[#This Row],[state_nss_code]]</f>
+        <v>06</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="6" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A13:C49,2,FALSE)</f>
+        <v>HR</v>
+      </c>
+      <c r="H34" s="10" t="str">
+        <f>VLOOKUP(C34,Table13[[#All],[State]:[Region]],2,FALSE)</f>
+        <v>Northern Zonal Council</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4" t="str">
+        <f>Table2[[#This Row],[state_nss_code]]</f>
+        <v>07</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="6" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A10:C46,2,FALSE)</f>
+        <v>DL</v>
+      </c>
+      <c r="H35" s="10" t="str">
+        <f>VLOOKUP(C35,Table13[[#All],[State]:[Region]],2,FALSE)</f>
+        <v>Northern Zonal Council</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D36" s="1">
         <v>1</v>
       </c>
-      <c r="E30" s="4" t="str">
+      <c r="E36" s="4" t="str">
         <f>Table2[[#This Row],[state_nss_code]]</f>
         <v>08</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="6" t="str">
+      <c r="F36" s="1"/>
+      <c r="G36" s="6" t="str">
         <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A29:C65,2,FALSE)</f>
         <v>RJ</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H36" s="10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="13">
-        <v>11</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="1">
+    <row r="37" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="1">
         <v>1</v>
       </c>
-      <c r="E31" s="4">
-        <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>11</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="6" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A30:C66,2,FALSE)</f>
-        <v>SK</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="13">
-        <v>33</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="4">
-        <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>33</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="6" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A31:C67,2,FALSE)</f>
-        <v>TN</v>
-      </c>
-      <c r="H32" s="10" t="str">
-        <f>VLOOKUP(C32,Table13[[#All],[State]:[Region]],2,FALSE)</f>
-        <v>Southern Zonal Council</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="63">
-        <v>36</v>
-      </c>
-      <c r="B33" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="64">
-        <v>1</v>
-      </c>
-      <c r="E33" s="66">
-        <v>36</v>
-      </c>
-      <c r="F33" s="65" t="s">
-        <v>231</v>
-      </c>
-      <c r="G33" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="H33" s="67" t="str">
-        <f>VLOOKUP(C33,Table13[[#All],[State]:[Region]],2,FALSE)</f>
-        <v>Southern Zonal Council</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="13">
-        <v>16</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="4">
-        <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>16</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="6" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A32:C68,2,FALSE)</f>
-        <v>TR</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4" t="str">
+      <c r="E37" s="4" t="str">
         <f>Table2[[#This Row],[state_nss_code]]</f>
         <v>09</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="6" t="str">
+      <c r="F37" s="1"/>
+      <c r="G37" s="6" t="str">
         <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A33:C69,2,FALSE)</f>
         <v>UP</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H37" s="10" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4" t="str">
-        <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>05</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="6" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A34:C70,2,FALSE)</f>
-        <v>UT</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="13">
-        <v>19</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4">
-        <f>Table2[[#This Row],[state_nss_code]]</f>
-        <v>19</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="6" t="str">
-        <f>VLOOKUP(Table2[[#This Row],[state in gsdp]],iso!A35:C71,2,FALSE)</f>
-        <v>WB</v>
-      </c>
-      <c r="H37" s="10" t="str">
-        <f>VLOOKUP(C37,Table13[[#All],[State]:[Region]],2,FALSE)</f>
-        <v>Eastern Zonal Council</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -4538,14 +5379,14 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" tooltip="Southern Zonal Council" display="https://en.wikipedia.org/wiki/Southern_Zonal_Council" xr:uid="{6C0FBDDC-BC0D-4272-B86C-5B4A377BB2A1}"/>
-    <hyperlink ref="H9" r:id="rId2" tooltip="Western Zonal Council" display="https://en.wikipedia.org/wiki/Western_Zonal_Council" xr:uid="{762B174B-927F-4F68-A1BE-8FB446106804}"/>
-    <hyperlink ref="H10" r:id="rId3" tooltip="Southern Zonal Council" display="https://en.wikipedia.org/wiki/Southern_Zonal_Council" xr:uid="{7D39CFC7-E070-4BB9-AD72-929DC112C712}"/>
-    <hyperlink ref="H29" r:id="rId4" tooltip="North Eastern Council" display="https://en.wikipedia.org/wiki/North_Eastern_Council" xr:uid="{C99901EC-CC92-418A-93BF-9240C3DC6F73}"/>
-    <hyperlink ref="H30" r:id="rId5" tooltip="North Eastern Council" display="https://en.wikipedia.org/wiki/North_Eastern_Council" xr:uid="{7F3AF98A-0E5B-4EEB-9437-2F70C189FF8F}"/>
-    <hyperlink ref="H31" r:id="rId6" tooltip="North Eastern Council" display="https://en.wikipedia.org/wiki/North_Eastern_Council" xr:uid="{0FF0389F-7882-4881-8166-EC0155E69395}"/>
-    <hyperlink ref="H34" r:id="rId7" tooltip="North Eastern Council" display="https://en.wikipedia.org/wiki/North_Eastern_Council" xr:uid="{291A2D9D-6134-48A5-A75B-525411E160B0}"/>
-    <hyperlink ref="H20" r:id="rId8" tooltip="Eastern Zonal Council" display="https://en.wikipedia.org/wiki/Eastern_Zonal_Council" xr:uid="{071A004B-7B20-4264-AC46-5172FBB49288}"/>
+    <hyperlink ref="H20" r:id="rId1" tooltip="Southern Zonal Council" display="https://en.wikipedia.org/wiki/Southern_Zonal_Council" xr:uid="{6C0FBDDC-BC0D-4272-B86C-5B4A377BB2A1}"/>
+    <hyperlink ref="H18" r:id="rId2" tooltip="Western Zonal Council" display="https://en.wikipedia.org/wiki/Western_Zonal_Council" xr:uid="{762B174B-927F-4F68-A1BE-8FB446106804}"/>
+    <hyperlink ref="H17" r:id="rId3" tooltip="Southern Zonal Council" display="https://en.wikipedia.org/wiki/Southern_Zonal_Council" xr:uid="{7D39CFC7-E070-4BB9-AD72-929DC112C712}"/>
+    <hyperlink ref="H31" r:id="rId4" tooltip="North Eastern Council" display="https://en.wikipedia.org/wiki/North_Eastern_Council" xr:uid="{C99901EC-CC92-418A-93BF-9240C3DC6F73}"/>
+    <hyperlink ref="H36" r:id="rId5" tooltip="North Eastern Council" display="https://en.wikipedia.org/wiki/North_Eastern_Council" xr:uid="{7F3AF98A-0E5B-4EEB-9437-2F70C189FF8F}"/>
+    <hyperlink ref="H3" r:id="rId6" tooltip="North Eastern Council" display="https://en.wikipedia.org/wiki/North_Eastern_Council" xr:uid="{0FF0389F-7882-4881-8166-EC0155E69395}"/>
+    <hyperlink ref="H8" r:id="rId7" tooltip="North Eastern Council" display="https://en.wikipedia.org/wiki/North_Eastern_Council" xr:uid="{291A2D9D-6134-48A5-A75B-525411E160B0}"/>
+    <hyperlink ref="H23" r:id="rId8" tooltip="Eastern Zonal Council" display="https://en.wikipedia.org/wiki/Eastern_Zonal_Council" xr:uid="{071A004B-7B20-4264-AC46-5172FBB49288}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -4555,7 +5396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6A96C9-8869-4134-87BF-84F06859747A}">
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -4992,7 +5833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0FB5B7-5CA4-4591-841B-A491FCDD586C}">
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -5364,9 +6205,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5587,27 +6431,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED09FCC8-1A66-4485-969D-A382B2F6C8A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A433FD8D-0260-4BE3-9E9A-3CF6F8A73258}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9c83b91e-5ffe-420f-9ed1-9dac5903eaec"/>
-    <ds:schemaRef ds:uri="60c75bb3-2e3f-4394-b4f4-3e2677e21dfa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5632,9 +6464,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A433FD8D-0260-4BE3-9E9A-3CF6F8A73258}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED09FCC8-1A66-4485-969D-A382B2F6C8A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="60c75bb3-2e3f-4394-b4f4-3e2677e21dfa"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="9c83b91e-5ffe-420f-9ed1-9dac5903eaec"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>